--- a/CardGameCourse/Downloads/Highlander/Series 1 Cards.xlsx
+++ b/CardGameCourse/Downloads/Highlander/Series 1 Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\HTCG\CardGameCourse\Downloads\Highlander\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B2ECE1-58AE-4836-9CC7-19E1EAC516B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7202F51-2464-4C70-85F0-432D6E98228A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{538B978B-732D-4B8C-BD1D-81861EF664BC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="454">
   <si>
     <t>Grid</t>
   </si>
@@ -4748,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9203C634-E967-4103-BCF0-2597E7A9F223}">
   <dimension ref="A1:K687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="J389" sqref="J389"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="B410" sqref="B410:I410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13375,118 +13375,126 @@
       <c r="I599" s="26"/>
     </row>
     <row r="600" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A600" s="27"/>
-      <c r="B600" s="2" t="s">
+      <c r="A600" s="22"/>
+      <c r="B600" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C600" s="2" t="s">
+      <c r="C600" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D600" s="2"/>
-      <c r="E600" s="3" t="s">
+      <c r="D600" s="12"/>
+      <c r="E600" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="F600" s="4"/>
-      <c r="G600" s="3" t="s">
+      <c r="F600" s="14"/>
+      <c r="G600" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H600" s="5" t="s">
+      <c r="H600" s="15" t="s">
         <v>377</v>
       </c>
+      <c r="I600" s="16"/>
+      <c r="J600" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A601" s="28"/>
-      <c r="B601" s="30" t="s">
+      <c r="A601" s="23"/>
+      <c r="B601" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C601" s="30"/>
-      <c r="D601" s="30"/>
-      <c r="E601" s="30"/>
-      <c r="F601" s="30"/>
-      <c r="G601" s="30"/>
-      <c r="H601" s="30"/>
-      <c r="I601" s="30"/>
+      <c r="C601" s="25"/>
+      <c r="D601" s="25"/>
+      <c r="E601" s="25"/>
+      <c r="F601" s="25"/>
+      <c r="G601" s="25"/>
+      <c r="H601" s="25"/>
+      <c r="I601" s="25"/>
     </row>
     <row r="602" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="28"/>
-      <c r="B602" s="30" t="s">
+      <c r="A602" s="23"/>
+      <c r="B602" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="C602" s="30"/>
-      <c r="D602" s="30"/>
-      <c r="E602" s="30"/>
-      <c r="F602" s="30"/>
-      <c r="G602" s="30"/>
-      <c r="H602" s="30"/>
-      <c r="I602" s="30"/>
+      <c r="C602" s="25"/>
+      <c r="D602" s="25"/>
+      <c r="E602" s="25"/>
+      <c r="F602" s="25"/>
+      <c r="G602" s="25"/>
+      <c r="H602" s="25"/>
+      <c r="I602" s="25"/>
     </row>
     <row r="603" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A603" s="29"/>
-      <c r="B603" s="31"/>
-      <c r="C603" s="31"/>
-      <c r="D603" s="31"/>
-      <c r="E603" s="31"/>
-      <c r="F603" s="31"/>
-      <c r="G603" s="31"/>
-      <c r="H603" s="31"/>
-      <c r="I603" s="31"/>
+      <c r="A603" s="24"/>
+      <c r="B603" s="26"/>
+      <c r="C603" s="26"/>
+      <c r="D603" s="26"/>
+      <c r="E603" s="26"/>
+      <c r="F603" s="26"/>
+      <c r="G603" s="26"/>
+      <c r="H603" s="26"/>
+      <c r="I603" s="26"/>
     </row>
     <row r="604" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A604" s="27"/>
-      <c r="B604" s="2" t="s">
+      <c r="A604" s="22"/>
+      <c r="B604" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="C604" s="2" t="s">
+      <c r="C604" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D604" s="2"/>
-      <c r="E604" s="3" t="s">
+      <c r="D604" s="12"/>
+      <c r="E604" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F604" s="4"/>
-      <c r="G604" s="3" t="s">
+      <c r="F604" s="14"/>
+      <c r="G604" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H604" s="5" t="s">
+      <c r="H604" s="15" t="s">
         <v>380</v>
       </c>
+      <c r="I604" s="16"/>
+      <c r="J604" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="28"/>
-      <c r="B605" s="30" t="s">
+      <c r="A605" s="23"/>
+      <c r="B605" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C605" s="30"/>
-      <c r="D605" s="30"/>
-      <c r="E605" s="30"/>
-      <c r="F605" s="30"/>
-      <c r="G605" s="30"/>
-      <c r="H605" s="30"/>
-      <c r="I605" s="30"/>
+      <c r="C605" s="25"/>
+      <c r="D605" s="25"/>
+      <c r="E605" s="25"/>
+      <c r="F605" s="25"/>
+      <c r="G605" s="25"/>
+      <c r="H605" s="25"/>
+      <c r="I605" s="25"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="28"/>
-      <c r="B606" s="30" t="s">
+      <c r="A606" s="23"/>
+      <c r="B606" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="C606" s="30"/>
-      <c r="D606" s="30"/>
-      <c r="E606" s="30"/>
-      <c r="F606" s="30"/>
-      <c r="G606" s="30"/>
-      <c r="H606" s="30"/>
-      <c r="I606" s="30"/>
+      <c r="C606" s="25"/>
+      <c r="D606" s="25"/>
+      <c r="E606" s="25"/>
+      <c r="F606" s="25"/>
+      <c r="G606" s="25"/>
+      <c r="H606" s="25"/>
+      <c r="I606" s="25"/>
     </row>
     <row r="607" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A607" s="29"/>
-      <c r="B607" s="31"/>
-      <c r="C607" s="31"/>
-      <c r="D607" s="31"/>
-      <c r="E607" s="31"/>
-      <c r="F607" s="31"/>
-      <c r="G607" s="31"/>
-      <c r="H607" s="31"/>
-      <c r="I607" s="31"/>
+      <c r="A607" s="24"/>
+      <c r="B607" s="26"/>
+      <c r="C607" s="26"/>
+      <c r="D607" s="26"/>
+      <c r="E607" s="26"/>
+      <c r="F607" s="26"/>
+      <c r="G607" s="26"/>
+      <c r="H607" s="26"/>
+      <c r="I607" s="26"/>
     </row>
     <row r="608" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A608" s="27"/>
